--- a/uploads/tabela_pontos_usuario.xlsx
+++ b/uploads/tabela_pontos_usuario.xlsx
@@ -433,7 +433,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
-        <v>1411080</v>
+        <v>11111111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -444,7 +444,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
-        <v>1411107</v>
+        <v>43525435</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -455,7 +455,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
-        <v>1411953</v>
+        <v>23455643523</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -466,7 +466,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
-        <v>1411080</v>
+        <v>254352435</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
@@ -477,7 +477,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
-        <v>1411107</v>
+        <v>55225543</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -488,7 +488,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
-        <v>1411953</v>
+        <v>5622565</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
